--- a/Excel/alumni.xlsx
+++ b/Excel/alumni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3182\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F6E098AC-BC65-4611-A4E0-86C761336BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC54F4E5-2AD6-4FDC-AA58-868D4FEB6807}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F6E098AC-BC65-4611-A4E0-86C761336BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4A9C22-AE95-4375-B5D1-039B9AFA5945}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,142 +44,142 @@
     <t>new</t>
   </si>
   <si>
+    <t xml:space="preserve">@orachorn ammy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@aure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Mam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PaewKanitha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Pirasin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@surapee </t>
+  </si>
+  <si>
+    <t>@Suraphol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ThongchaiPradab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Treerutt Sirirutt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Verasak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Poo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Rochana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@worrawuthi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Chompunoot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mahisorn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@medha130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rungsee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@supachai-yava2516 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Suwanchai Ritthirak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Vimol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Yotin P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@chanida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Dr.big pravich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Koonchai Thana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Narumit Hinshiranan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Nongnuch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Nuyai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Orawan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Srisuwan P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SURAPONG PU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Thirapat Serirangsan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Thongdee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Toi Kosoom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Anongthip Eksaengsri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@CHAYAPA 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Maneerat.chea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@MANIT  S. 0813313339 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Suppanit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Trakoon Meechai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Tu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Vira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@voravan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yuijuthaporn? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@?.?.?.??????? ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@????? </t>
+  </si>
+  <si>
     <t xml:space="preserve">@Amnat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@aure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Chompunoot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Koonchai Thana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@mahisorn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Mam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@MANIT  S. 0813313339 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@medha130 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Narumit Hinshiranan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Nongnuch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Nuyai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@orachorn ammy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@PaewKanitha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Rochana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Srisuwan P </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@supachai-yava2516 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Suppanit </t>
-  </si>
-  <si>
-    <t>@Suraphol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@SURAPONG PU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Thirapat Serirangsan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Thongdee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Toi Kosoom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Treerutt Sirirutt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Tu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Verasak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Vira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Yotin P </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@?.?.?.??????? ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@????? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Anongthip Eksaengsri </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@chanida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@CHAYAPA 26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Dr.big pravich </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Maneerat.chea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Orawan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Pirasin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Poo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@rungsee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@surapee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Suwanchai Ritthirak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ThongchaiPradab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Trakoon Meechai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Vimol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@voravan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@worrawuthi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@yuijuthaporn? </t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1044,6 +1046,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -1064,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1075,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1086,10 +1091,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1100,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1108,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1119,10 +1124,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1130,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1141,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1152,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1163,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1174,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1185,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1196,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1218,10 +1223,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1229,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1240,10 +1245,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1251,10 +1256,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1262,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1276,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1284,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1295,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1306,7 +1311,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1317,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1328,7 +1333,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1338,14 +1343,20 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -1355,10 +1366,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1369,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1377,10 +1388,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1391,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1410,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1421,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1432,10 +1443,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1443,10 +1454,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1454,7 +1465,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1465,10 +1476,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1476,10 +1487,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1498,7 +1509,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1508,36 +1519,31 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
+    <sortCondition descending="1" ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>